--- a/экономика.xlsx
+++ b/экономика.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Asus\Desktop\My_diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B473FF-74FC-4FAD-88D6-3F9AA29F5F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8559D4E2-80CE-4EDF-AAF6-75D9A0562649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12165" yWindow="660" windowWidth="20910" windowHeight="11835" xr2:uid="{848190B9-AA69-485F-BF97-F48392E4C79E}"/>
+    <workbookView xWindow="12720" yWindow="690" windowWidth="20910" windowHeight="11835" xr2:uid="{848190B9-AA69-485F-BF97-F48392E4C79E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>итого</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>цп</t>
+  </si>
+  <si>
+    <t>пч</t>
+  </si>
+  <si>
+    <t>доп зп</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> зп</t>
+  </si>
+  <si>
+    <t>соц</t>
+  </si>
+  <si>
+    <t>инвест</t>
   </si>
 </sst>
 </file>
@@ -410,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412A432C-EBD3-45A7-A185-344566F294A8}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,6 +552,74 @@
         <v>30834.646818181813</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <f>100*B15*(1-20/100)</f>
+        <v>465162.6719999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <f>B25*10/100</f>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <f>((B25+B26)*29)/100</f>
+        <v>985.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <f>B25+B26+B27</f>
+        <v>4384.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>B23-(B28+242272.25)</f>
+        <v>218505.71199999991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>B28+242272.25</f>
+        <v>246656.96</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>B31/B32</f>
+        <v>0.88586882770305742</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>B33*100</f>
+        <v>88.586882770305735</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
